--- a/data/pre.xlsx
+++ b/data/pre.xlsx
@@ -438,6 +438,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Marca temporal</t>
@@ -710,7 +715,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
@@ -751,7 +756,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -897,7 +902,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
@@ -938,7 +943,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -1084,7 +1089,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
@@ -1125,7 +1130,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -1271,7 +1276,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -1458,7 +1463,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
@@ -1645,7 +1650,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
@@ -1686,7 +1691,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1832,7 +1837,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
@@ -1873,7 +1878,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -2019,7 +2024,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
@@ -2206,7 +2211,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
@@ -2393,7 +2398,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
@@ -2580,7 +2585,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
@@ -2621,7 +2626,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -2769,7 +2774,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
@@ -2956,7 +2961,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
@@ -3144,7 +3149,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
@@ -3185,7 +3190,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Cristiana pero propia</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -3331,7 +3336,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
@@ -3518,7 +3523,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
@@ -3559,7 +3564,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -3705,7 +3710,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
@@ -3746,7 +3751,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -3898,7 +3903,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
@@ -3939,7 +3944,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -4085,7 +4090,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -4126,7 +4131,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -4272,7 +4277,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
@@ -4313,7 +4318,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -4459,7 +4464,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
@@ -4646,7 +4651,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -4687,7 +4692,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Catolica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -4833,7 +4838,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
@@ -4874,7 +4879,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Catolicismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -5023,7 +5028,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
@@ -5064,7 +5069,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Catolicismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -5214,7 +5219,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
@@ -5255,7 +5260,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -5401,7 +5406,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
@@ -5588,7 +5593,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
@@ -5778,7 +5783,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
@@ -5965,7 +5970,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
@@ -6006,7 +6011,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -6152,7 +6157,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
@@ -6193,7 +6198,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Musulmana</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -6339,7 +6344,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -6380,7 +6385,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -6529,7 +6534,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
@@ -6570,7 +6575,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiano </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -6716,7 +6721,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
@@ -6757,7 +6762,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristianismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -6903,7 +6908,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
@@ -6944,7 +6949,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -7090,7 +7095,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
@@ -7277,7 +7282,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
@@ -7318,7 +7323,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K37" t="n">
@@ -7464,7 +7469,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
@@ -7505,7 +7510,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K38" t="n">
@@ -7651,7 +7656,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
@@ -7692,7 +7697,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K39" t="n">
@@ -7838,7 +7843,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
@@ -7879,7 +7884,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K40" t="n">
@@ -8025,7 +8030,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
@@ -8066,7 +8071,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -8212,7 +8217,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
@@ -8253,7 +8258,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Católica apostólica románica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -8399,7 +8404,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
@@ -8586,7 +8591,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
@@ -8627,7 +8632,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Religión cristiana católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -8779,7 +8784,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
@@ -8969,7 +8974,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
@@ -9156,7 +9161,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
@@ -9197,7 +9202,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K47" t="n">
@@ -9343,7 +9348,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
@@ -9384,7 +9389,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K48" t="n">
@@ -9530,7 +9535,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
@@ -9571,7 +9576,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -9719,7 +9724,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
@@ -9906,7 +9911,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
@@ -10093,7 +10098,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
@@ -10134,7 +10139,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -10281,7 +10286,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
@@ -10322,7 +10327,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K53" t="n">
@@ -10468,7 +10473,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
@@ -10509,7 +10514,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K54" t="n">
@@ -10655,7 +10660,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -10842,7 +10847,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
@@ -10883,7 +10888,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>La religión cristiana, pero tengo una interpretación bastante personal</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -11029,7 +11034,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
@@ -11070,7 +11075,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -11216,7 +11221,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
@@ -11403,7 +11408,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
@@ -11590,7 +11595,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
@@ -11631,7 +11636,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K60" t="n">
@@ -11778,7 +11783,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
@@ -11819,7 +11824,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>CRISTIANA</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K61" t="n">
@@ -11965,7 +11970,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
@@ -12006,7 +12011,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K62" t="n">
@@ -12156,7 +12161,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
@@ -12197,7 +12202,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K63" t="n">
@@ -12343,7 +12348,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
@@ -12384,7 +12389,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K64" t="n">
@@ -12531,7 +12536,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
@@ -12572,7 +12577,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Catolicismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K65" t="n">
@@ -12718,7 +12723,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
@@ -12759,7 +12764,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -12905,7 +12910,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
@@ -13092,7 +13097,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
@@ -13133,7 +13138,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K68" t="n">
@@ -13279,7 +13284,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
@@ -13320,7 +13325,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K69" t="n">
@@ -13466,7 +13471,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
@@ -13653,7 +13658,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
@@ -13694,7 +13699,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -13840,7 +13845,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
@@ -13881,7 +13886,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -14027,7 +14032,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
@@ -14068,7 +14073,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -14214,7 +14219,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
@@ -14403,7 +14408,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
@@ -14444,7 +14449,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -14590,7 +14595,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
@@ -14631,7 +14636,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -14777,7 +14782,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
@@ -14818,7 +14823,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristianismo católico y apostólico </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -14964,7 +14969,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="n">
@@ -15005,7 +15010,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K78" t="n">
@@ -15151,7 +15156,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" s="2" t="n">
@@ -15338,7 +15343,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" s="2" t="n">
@@ -15525,7 +15530,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" s="2" t="n">
@@ -15712,7 +15717,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" s="2" t="n">
@@ -15899,7 +15904,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" s="2" t="n">
@@ -16086,7 +16091,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" s="2" t="n">
@@ -16273,7 +16278,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" s="2" t="n">
@@ -16460,7 +16465,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" s="2" t="n">
@@ -16647,7 +16652,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" s="2" t="n">
@@ -16688,7 +16693,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K87" t="n">
@@ -16834,7 +16839,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" s="2" t="n">
@@ -16875,7 +16880,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K88" t="n">
@@ -17021,7 +17026,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="n">
@@ -17062,7 +17067,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K89" t="n">
@@ -17210,7 +17215,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" s="2" t="n">
@@ -17251,7 +17256,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K90" t="n">
@@ -17397,7 +17402,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" s="2" t="n">
@@ -17438,7 +17443,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K91" t="n">
@@ -17585,7 +17590,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" s="2" t="n">
@@ -17772,7 +17777,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" s="2" t="n">
@@ -17813,7 +17818,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -17961,7 +17966,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="n">
@@ -18148,7 +18153,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" s="2" t="n">
@@ -18335,7 +18340,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" s="2" t="n">
@@ -18376,7 +18381,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K96" t="n">
@@ -18522,7 +18527,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" s="2" t="n">
@@ -18563,7 +18568,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -18709,7 +18714,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" s="2" t="n">
@@ -18750,7 +18755,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -18896,7 +18901,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" s="2" t="n">
@@ -19084,7 +19089,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" s="2" t="n">
@@ -19273,7 +19278,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
+      <c r="A101" t="n">
         <v>99</v>
       </c>
       <c r="B101" s="2" t="n">
@@ -19314,7 +19319,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K101" t="n">
@@ -19460,7 +19465,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
+      <c r="A102" t="n">
         <v>100</v>
       </c>
       <c r="B102" s="2" t="n">
@@ -19651,7 +19656,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
+      <c r="A103" t="n">
         <v>101</v>
       </c>
       <c r="B103" s="2" t="n">
@@ -19692,7 +19697,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Religión católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K103" t="n">
@@ -19840,7 +19845,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
+      <c r="A104" t="n">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="n">
@@ -19881,7 +19886,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t xml:space="preserve">cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K104" t="n">
@@ -20035,7 +20040,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
+      <c r="A105" t="n">
         <v>103</v>
       </c>
       <c r="B105" s="2" t="n">
@@ -20076,7 +20081,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Católica cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K105" t="n">
@@ -20222,7 +20227,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
+      <c r="A106" t="n">
         <v>104</v>
       </c>
       <c r="B106" s="2" t="n">
@@ -20263,7 +20268,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K106" t="n">
@@ -20409,7 +20414,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
+      <c r="A107" t="n">
         <v>105</v>
       </c>
       <c r="B107" s="2" t="n">
@@ -20450,7 +20455,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristianismo, religión católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -20596,7 +20601,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
+      <c r="A108" t="n">
         <v>106</v>
       </c>
       <c r="B108" s="2" t="n">
@@ -20637,7 +20642,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K108" t="n">
@@ -20783,7 +20788,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
+      <c r="A109" t="n">
         <v>107</v>
       </c>
       <c r="B109" s="2" t="n">
@@ -20824,7 +20829,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K109" t="n">
@@ -20970,7 +20975,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
+      <c r="A110" t="n">
         <v>108</v>
       </c>
       <c r="B110" s="2" t="n">
@@ -21011,7 +21016,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K110" t="n">
@@ -21158,7 +21163,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
+      <c r="A111" t="n">
         <v>109</v>
       </c>
       <c r="B111" s="2" t="n">
@@ -21199,7 +21204,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Religión católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K111" t="n">
@@ -21345,7 +21350,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
+      <c r="A112" t="n">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="n">
@@ -21534,7 +21539,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
+      <c r="A113" t="n">
         <v>111</v>
       </c>
       <c r="B113" s="2" t="n">
@@ -21575,7 +21580,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K113" t="n">
@@ -21722,7 +21727,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
+      <c r="A114" t="n">
         <v>112</v>
       </c>
       <c r="B114" s="2" t="n">
@@ -21763,7 +21768,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crisitianismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K114" t="n">
@@ -21909,7 +21914,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
+      <c r="A115" t="n">
         <v>113</v>
       </c>
       <c r="B115" s="2" t="n">
@@ -21950,7 +21955,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristianismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K115" t="n">
@@ -22103,7 +22108,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
+      <c r="A116" t="n">
         <v>114</v>
       </c>
       <c r="B116" s="2" t="n">
@@ -22144,7 +22149,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K116" t="n">
@@ -22291,7 +22296,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
+      <c r="A117" t="n">
         <v>115</v>
       </c>
       <c r="B117" s="2" t="n">
@@ -22332,7 +22337,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -22478,7 +22483,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
+      <c r="A118" t="n">
         <v>116</v>
       </c>
       <c r="B118" s="2" t="n">
@@ -22665,7 +22670,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
+      <c r="A119" t="n">
         <v>117</v>
       </c>
       <c r="B119" s="2" t="n">
@@ -22852,7 +22857,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
+      <c r="A120" t="n">
         <v>118</v>
       </c>
       <c r="B120" s="2" t="n">
@@ -23039,7 +23044,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
+      <c r="A121" t="n">
         <v>119</v>
       </c>
       <c r="B121" s="2" t="n">
@@ -23080,7 +23085,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K121" t="n">
@@ -23227,7 +23232,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
+      <c r="A122" t="n">
         <v>120</v>
       </c>
       <c r="B122" s="2" t="n">
@@ -23268,7 +23273,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K122" t="n">
@@ -23414,7 +23419,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
+      <c r="A123" t="n">
         <v>121</v>
       </c>
       <c r="B123" s="2" t="n">
@@ -23455,7 +23460,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Catolica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K123" t="n">
@@ -23601,7 +23606,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
+      <c r="A124" t="n">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="n">
@@ -23642,7 +23647,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K124" t="n">
@@ -23790,7 +23795,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
+      <c r="A125" t="n">
         <v>123</v>
       </c>
       <c r="B125" s="2" t="n">
@@ -23977,7 +23982,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
+      <c r="A126" t="n">
         <v>124</v>
       </c>
       <c r="B126" s="2" t="n">
@@ -24164,7 +24169,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
+      <c r="A127" t="n">
         <v>125</v>
       </c>
       <c r="B127" s="2" t="n">
@@ -24351,7 +24356,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
+      <c r="A128" t="n">
         <v>126</v>
       </c>
       <c r="B128" s="2" t="n">
@@ -24538,7 +24543,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
+      <c r="A129" t="n">
         <v>127</v>
       </c>
       <c r="B129" s="2" t="n">
@@ -24579,7 +24584,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t xml:space="preserve">RELGIÓN CATÓLICA </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K129" t="n">
@@ -24725,7 +24730,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
+      <c r="A130" t="n">
         <v>128</v>
       </c>
       <c r="B130" s="2" t="n">
@@ -24766,7 +24771,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K130" t="n">
@@ -24912,7 +24917,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
+      <c r="A131" t="n">
         <v>129</v>
       </c>
       <c r="B131" s="2" t="n">
@@ -25099,7 +25104,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
+      <c r="A132" t="n">
         <v>130</v>
       </c>
       <c r="B132" s="2" t="n">
@@ -25140,7 +25145,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K132" t="n">
@@ -25286,7 +25291,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
+      <c r="A133" t="n">
         <v>131</v>
       </c>
       <c r="B133" s="2" t="n">
@@ -25327,7 +25332,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K133" t="n">
@@ -25473,7 +25478,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
+      <c r="A134" t="n">
         <v>132</v>
       </c>
       <c r="B134" s="2" t="n">
@@ -25660,7 +25665,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
+      <c r="A135" t="n">
         <v>133</v>
       </c>
       <c r="B135" s="2" t="n">
@@ -25847,7 +25852,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
+      <c r="A136" t="n">
         <v>134</v>
       </c>
       <c r="B136" s="2" t="n">
@@ -25888,7 +25893,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Catolica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K136" t="n">
@@ -26034,7 +26039,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
+      <c r="A137" t="n">
         <v>135</v>
       </c>
       <c r="B137" s="2" t="n">
@@ -26221,7 +26226,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
+      <c r="A138" t="n">
         <v>136</v>
       </c>
       <c r="B138" s="2" t="n">
@@ -26262,7 +26267,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristianismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K138" t="n">
@@ -26411,7 +26416,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
+      <c r="A139" t="n">
         <v>137</v>
       </c>
       <c r="B139" s="2" t="n">
@@ -26600,7 +26605,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
+      <c r="A140" t="n">
         <v>138</v>
       </c>
       <c r="B140" s="2" t="n">
@@ -26787,7 +26792,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
+      <c r="A141" t="n">
         <v>139</v>
       </c>
       <c r="B141" s="2" t="n">
@@ -26828,7 +26833,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K141" t="n">
@@ -26975,7 +26980,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
+      <c r="A142" t="n">
         <v>140</v>
       </c>
       <c r="B142" s="2" t="n">
@@ -27162,7 +27167,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
+      <c r="A143" t="n">
         <v>141</v>
       </c>
       <c r="B143" s="2" t="n">
@@ -27358,7 +27363,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
+      <c r="A144" t="n">
         <v>142</v>
       </c>
       <c r="B144" s="2" t="n">
@@ -27399,7 +27404,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Catolicismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K144" t="n">
@@ -27545,7 +27550,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
+      <c r="A145" t="n">
         <v>143</v>
       </c>
       <c r="B145" s="2" t="n">
@@ -27732,7 +27737,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
+      <c r="A146" t="n">
         <v>144</v>
       </c>
       <c r="B146" s="2" t="n">
@@ -27919,7 +27924,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
+      <c r="A147" t="n">
         <v>145</v>
       </c>
       <c r="B147" s="2" t="n">
@@ -28106,7 +28111,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
+      <c r="A148" t="n">
         <v>146</v>
       </c>
       <c r="B148" s="2" t="n">
@@ -28293,7 +28298,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
+      <c r="A149" t="n">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="n">
@@ -28334,7 +28339,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K149" t="n">
@@ -28480,7 +28485,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
+      <c r="A150" t="n">
         <v>148</v>
       </c>
       <c r="B150" s="2" t="n">
@@ -28667,7 +28672,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
+      <c r="A151" t="n">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="n">
@@ -28708,7 +28713,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K151" t="n">
@@ -28854,7 +28859,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
+      <c r="A152" t="n">
         <v>150</v>
       </c>
       <c r="B152" s="2" t="n">
@@ -28895,7 +28900,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -29041,7 +29046,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
+      <c r="A153" t="n">
         <v>151</v>
       </c>
       <c r="B153" s="2" t="n">
@@ -29082,7 +29087,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K153" t="n">
@@ -29228,7 +29233,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
+      <c r="A154" t="n">
         <v>152</v>
       </c>
       <c r="B154" s="2" t="n">
@@ -29269,7 +29274,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K154" t="n">
@@ -29415,7 +29420,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
+      <c r="A155" t="n">
         <v>153</v>
       </c>
       <c r="B155" s="2" t="n">
@@ -29606,7 +29611,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
+      <c r="A156" t="n">
         <v>154</v>
       </c>
       <c r="B156" s="2" t="n">
@@ -29647,7 +29652,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K156" t="n">
@@ -29793,7 +29798,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
+      <c r="A157" t="n">
         <v>155</v>
       </c>
       <c r="B157" s="2" t="n">
@@ -29834,7 +29839,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Cristiano catolico</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -29980,7 +29985,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
+      <c r="A158" t="n">
         <v>156</v>
       </c>
       <c r="B158" s="2" t="n">
@@ -30170,7 +30175,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
+      <c r="A159" t="n">
         <v>157</v>
       </c>
       <c r="B159" s="2" t="n">
@@ -30211,7 +30216,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K159" t="n">
@@ -30357,7 +30362,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
+      <c r="A160" t="n">
         <v>158</v>
       </c>
       <c r="B160" s="2" t="n">
@@ -30544,7 +30549,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
+      <c r="A161" t="n">
         <v>159</v>
       </c>
       <c r="B161" s="2" t="n">
@@ -30731,7 +30736,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
+      <c r="A162" t="n">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="n">
@@ -30772,7 +30777,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>CATÓLICA</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K162" t="n">
@@ -30919,7 +30924,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
+      <c r="A163" t="n">
         <v>161</v>
       </c>
       <c r="B163" s="2" t="n">
@@ -31106,7 +31111,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
+      <c r="A164" t="n">
         <v>162</v>
       </c>
       <c r="B164" s="2" t="n">
@@ -31147,7 +31152,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K164" t="n">
@@ -31293,7 +31298,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
+      <c r="A165" t="n">
         <v>163</v>
       </c>
       <c r="B165" s="2" t="n">
@@ -31334,7 +31339,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K165" t="n">
@@ -31480,7 +31485,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
+      <c r="A166" t="n">
         <v>164</v>
       </c>
       <c r="B166" s="2" t="n">
@@ -31521,7 +31526,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K166" t="n">
@@ -31667,7 +31672,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
+      <c r="A167" t="n">
         <v>165</v>
       </c>
       <c r="B167" s="2" t="n">
@@ -31708,7 +31713,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Cristiano</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K167" t="n">
@@ -31854,7 +31859,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
+      <c r="A168" t="n">
         <v>166</v>
       </c>
       <c r="B168" s="2" t="n">
@@ -31895,7 +31900,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K168" t="n">
@@ -32042,7 +32047,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
+      <c r="A169" t="n">
         <v>167</v>
       </c>
       <c r="B169" s="2" t="n">
@@ -32083,7 +32088,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K169" t="n">
@@ -32229,7 +32234,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
+      <c r="A170" t="n">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="n">
@@ -32270,7 +32275,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K170" t="n">
@@ -32416,7 +32421,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
+      <c r="A171" t="n">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="n">
@@ -32457,7 +32462,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K171" t="n">
@@ -32603,7 +32608,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
+      <c r="A172" t="n">
         <v>170</v>
       </c>
       <c r="B172" s="2" t="n">
@@ -32792,7 +32797,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
+      <c r="A173" t="n">
         <v>171</v>
       </c>
       <c r="B173" s="2" t="n">
@@ -32980,7 +32985,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
+      <c r="A174" t="n">
         <v>172</v>
       </c>
       <c r="B174" s="2" t="n">
@@ -33167,7 +33172,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
+      <c r="A175" t="n">
         <v>173</v>
       </c>
       <c r="B175" s="2" t="n">
@@ -33208,7 +33213,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Catolica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K175" t="n">
@@ -33354,7 +33359,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
+      <c r="A176" t="n">
         <v>174</v>
       </c>
       <c r="B176" s="2" t="n">
@@ -33395,7 +33400,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Catolica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K176" t="n">
@@ -33541,7 +33546,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
+      <c r="A177" t="n">
         <v>175</v>
       </c>
       <c r="B177" s="2" t="n">
@@ -33728,7 +33733,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
+      <c r="A178" t="n">
         <v>176</v>
       </c>
       <c r="B178" s="2" t="n">
@@ -33915,7 +33920,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
+      <c r="A179" t="n">
         <v>177</v>
       </c>
       <c r="B179" s="2" t="n">
@@ -33956,7 +33961,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t xml:space="preserve">católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K179" t="n">
@@ -34104,7 +34109,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
+      <c r="A180" t="n">
         <v>178</v>
       </c>
       <c r="B180" s="2" t="n">
@@ -34145,7 +34150,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristianismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K180" t="n">
@@ -34291,7 +34296,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
+      <c r="A181" t="n">
         <v>179</v>
       </c>
       <c r="B181" s="2" t="n">
@@ -34478,7 +34483,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
+      <c r="A182" t="n">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="n">
@@ -34519,7 +34524,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Catolica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K182" t="n">
@@ -34665,7 +34670,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
+      <c r="A183" t="n">
         <v>181</v>
       </c>
       <c r="B183" s="2" t="n">
@@ -34852,7 +34857,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
+      <c r="A184" t="n">
         <v>182</v>
       </c>
       <c r="B184" s="2" t="n">
@@ -34893,7 +34898,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K184" t="n">
@@ -35039,7 +35044,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
+      <c r="A185" t="n">
         <v>183</v>
       </c>
       <c r="B185" s="2" t="n">
@@ -35226,7 +35231,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
+      <c r="A186" t="n">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="n">
@@ -35267,7 +35272,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t xml:space="preserve">católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K186" t="n">
@@ -35413,7 +35418,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
+      <c r="A187" t="n">
         <v>185</v>
       </c>
       <c r="B187" s="2" t="n">
@@ -35454,7 +35459,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K187" t="n">
@@ -35600,7 +35605,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
+      <c r="A188" t="n">
         <v>186</v>
       </c>
       <c r="B188" s="2" t="n">
@@ -35641,7 +35646,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K188" t="n">
@@ -35789,7 +35794,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
+      <c r="A189" t="n">
         <v>187</v>
       </c>
       <c r="B189" s="2" t="n">
@@ -35830,7 +35835,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Religión musulmana</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K189" t="n">
@@ -35976,7 +35981,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
+      <c r="A190" t="n">
         <v>188</v>
       </c>
       <c r="B190" s="2" t="n">
@@ -36017,7 +36022,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K190" t="n">
@@ -36163,7 +36168,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
+      <c r="A191" t="n">
         <v>189</v>
       </c>
       <c r="B191" s="2" t="n">
@@ -36351,7 +36356,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
+      <c r="A192" t="n">
         <v>190</v>
       </c>
       <c r="B192" s="2" t="n">
@@ -36392,7 +36397,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K192" t="n">
@@ -36538,7 +36543,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
+      <c r="A193" t="n">
         <v>191</v>
       </c>
       <c r="B193" s="2" t="n">
@@ -36579,7 +36584,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Islámica</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K193" t="n">
@@ -36734,7 +36739,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
+      <c r="A194" t="n">
         <v>192</v>
       </c>
       <c r="B194" s="2" t="n">
@@ -36775,7 +36780,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K194" t="n">
@@ -36921,7 +36926,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
+      <c r="A195" t="n">
         <v>193</v>
       </c>
       <c r="B195" s="2" t="n">
@@ -36962,7 +36967,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Religion cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K195" t="n">
@@ -37109,7 +37114,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
+      <c r="A196" t="n">
         <v>194</v>
       </c>
       <c r="B196" s="2" t="n">
@@ -37150,7 +37155,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K196" t="n">
@@ -37296,7 +37301,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
+      <c r="A197" t="n">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="n">
@@ -37337,7 +37342,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K197" t="n">
@@ -37483,7 +37488,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
+      <c r="A198" t="n">
         <v>196</v>
       </c>
       <c r="B198" s="2" t="n">
@@ -37524,7 +37529,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Islámica/Musulmana</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K198" t="n">
@@ -37683,7 +37688,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
+      <c r="A199" t="n">
         <v>197</v>
       </c>
       <c r="B199" s="2" t="n">
@@ -37724,7 +37729,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Musulmana </t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K199" t="n">
@@ -37874,7 +37879,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
+      <c r="A200" t="n">
         <v>198</v>
       </c>
       <c r="B200" s="2" t="n">
@@ -37915,7 +37920,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K200" t="n">
@@ -38066,7 +38071,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
+      <c r="A201" t="n">
         <v>199</v>
       </c>
       <c r="B201" s="2" t="n">
@@ -38107,7 +38112,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K201" t="n">
@@ -38256,7 +38261,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
+      <c r="A202" t="n">
         <v>200</v>
       </c>
       <c r="B202" s="2" t="n">
@@ -38449,7 +38454,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
+      <c r="A203" t="n">
         <v>201</v>
       </c>
       <c r="B203" s="2" t="n">
@@ -38636,7 +38641,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
+      <c r="A204" t="n">
         <v>202</v>
       </c>
       <c r="B204" s="2" t="n">
@@ -38823,7 +38828,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
+      <c r="A205" t="n">
         <v>203</v>
       </c>
       <c r="B205" s="2" t="n">
@@ -39010,7 +39015,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
+      <c r="A206" t="n">
         <v>204</v>
       </c>
       <c r="B206" s="2" t="n">
@@ -39051,7 +39056,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K206" t="n">
@@ -39201,7 +39206,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
+      <c r="A207" t="n">
         <v>205</v>
       </c>
       <c r="B207" s="2" t="n">
@@ -39388,7 +39393,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
+      <c r="A208" t="n">
         <v>206</v>
       </c>
       <c r="B208" s="2" t="n">
@@ -39429,7 +39434,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K208" t="n">
@@ -39575,7 +39580,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
+      <c r="A209" t="n">
         <v>207</v>
       </c>
       <c r="B209" s="2" t="n">
@@ -39616,7 +39621,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K209" t="n">
@@ -39767,7 +39772,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
+      <c r="A210" t="n">
         <v>208</v>
       </c>
       <c r="B210" s="2" t="n">
@@ -39808,7 +39813,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Musulmana</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K210" t="n">
@@ -39954,7 +39959,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
+      <c r="A211" t="n">
         <v>209</v>
       </c>
       <c r="B211" s="2" t="n">
@@ -39995,7 +40000,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>catolica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K211" t="n">
@@ -40146,7 +40151,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
+      <c r="A212" t="n">
         <v>210</v>
       </c>
       <c r="B212" s="2" t="n">
@@ -40187,7 +40192,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Musulmana</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K212" t="n">
@@ -40333,7 +40338,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
+      <c r="A213" t="n">
         <v>211</v>
       </c>
       <c r="B213" s="2" t="n">
@@ -40374,7 +40379,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Religión católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K213" t="n">
@@ -40520,7 +40525,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
+      <c r="A214" t="n">
         <v>212</v>
       </c>
       <c r="B214" s="2" t="n">
@@ -40561,7 +40566,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Islam </t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K214" t="n">
@@ -40708,7 +40713,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
+      <c r="A215" t="n">
         <v>213</v>
       </c>
       <c r="B215" s="2" t="n">
@@ -40749,7 +40754,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K215" t="n">
@@ -40895,7 +40900,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
+      <c r="A216" t="n">
         <v>214</v>
       </c>
       <c r="B216" s="2" t="n">
@@ -40936,7 +40941,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristianismo </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K216" t="n">
@@ -41083,7 +41088,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
+      <c r="A217" t="n">
         <v>215</v>
       </c>
       <c r="B217" s="2" t="n">
@@ -41124,7 +41129,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Islámica</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K217" t="n">
@@ -41272,7 +41277,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
+      <c r="A218" t="n">
         <v>216</v>
       </c>
       <c r="B218" s="2" t="n">
@@ -41313,7 +41318,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K218" t="n">
@@ -41462,7 +41467,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
+      <c r="A219" t="n">
         <v>217</v>
       </c>
       <c r="B219" s="2" t="n">
@@ -41503,7 +41508,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K219" t="n">
@@ -41657,7 +41662,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
+      <c r="A220" t="n">
         <v>218</v>
       </c>
       <c r="B220" s="2" t="n">
@@ -41698,7 +41703,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>CATÓLICA</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K220" t="n">
@@ -41844,7 +41849,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
+      <c r="A221" t="n">
         <v>219</v>
       </c>
       <c r="B221" s="2" t="n">
@@ -41885,7 +41890,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana pero no soy practicante </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K221" t="n">
@@ -42032,7 +42037,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
+      <c r="A222" t="n">
         <v>220</v>
       </c>
       <c r="B222" s="2" t="n">
@@ -42223,7 +42228,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
+      <c r="A223" t="n">
         <v>221</v>
       </c>
       <c r="B223" s="2" t="n">
@@ -42264,7 +42269,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Religión cristiana. </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K223" t="n">
@@ -42413,7 +42418,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
+      <c r="A224" t="n">
         <v>222</v>
       </c>
       <c r="B224" s="2" t="n">
@@ -42454,7 +42459,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K224" t="n">
@@ -42602,7 +42607,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
+      <c r="A225" t="n">
         <v>223</v>
       </c>
       <c r="B225" s="2" t="n">
@@ -42789,7 +42794,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
+      <c r="A226" t="n">
         <v>224</v>
       </c>
       <c r="B226" s="2" t="n">
@@ -42976,7 +42981,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
+      <c r="A227" t="n">
         <v>225</v>
       </c>
       <c r="B227" s="2" t="n">
@@ -43017,7 +43022,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K227" t="n">
@@ -43163,7 +43168,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
+      <c r="A228" t="n">
         <v>226</v>
       </c>
       <c r="B228" s="2" t="n">
@@ -43204,7 +43209,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Musulmana </t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K228" t="n">
@@ -43350,7 +43355,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
+      <c r="A229" t="n">
         <v>227</v>
       </c>
       <c r="B229" s="2" t="n">
@@ -43538,7 +43543,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
+      <c r="A230" t="n">
         <v>228</v>
       </c>
       <c r="B230" s="2" t="n">
@@ -43579,7 +43584,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K230" t="n">
@@ -43733,7 +43738,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
+      <c r="A231" t="n">
         <v>229</v>
       </c>
       <c r="B231" s="2" t="n">
@@ -43774,7 +43779,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K231" t="n">
@@ -43921,7 +43926,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
+      <c r="A232" t="n">
         <v>230</v>
       </c>
       <c r="B232" s="2" t="n">
@@ -44114,7 +44119,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
+      <c r="A233" t="n">
         <v>231</v>
       </c>
       <c r="B233" s="2" t="n">
@@ -44155,7 +44160,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K233" t="n">
@@ -44303,7 +44308,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
+      <c r="A234" t="n">
         <v>232</v>
       </c>
       <c r="B234" s="2" t="n">
@@ -44344,7 +44349,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K234" t="n">
@@ -44494,7 +44499,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
+      <c r="A235" t="n">
         <v>233</v>
       </c>
       <c r="B235" s="2" t="n">
@@ -44535,7 +44540,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K235" t="n">
@@ -44681,7 +44686,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
+      <c r="A236" t="n">
         <v>234</v>
       </c>
       <c r="B236" s="2" t="n">
@@ -44722,7 +44727,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K236" t="n">
@@ -44874,7 +44879,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
+      <c r="A237" t="n">
         <v>235</v>
       </c>
       <c r="B237" s="2" t="n">
@@ -44915,7 +44920,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Musulmana</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K237" t="n">
@@ -45068,7 +45073,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
+      <c r="A238" t="n">
         <v>236</v>
       </c>
       <c r="B238" s="2" t="n">
@@ -45109,7 +45114,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRISTIANA </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K238" t="n">
@@ -45259,7 +45264,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
+      <c r="A239" t="n">
         <v>237</v>
       </c>
       <c r="B239" s="2" t="n">
@@ -45300,7 +45305,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K239" t="n">
@@ -45446,7 +45451,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
+      <c r="A240" t="n">
         <v>238</v>
       </c>
       <c r="B240" s="2" t="n">
@@ -45487,7 +45492,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Islamica </t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K240" t="n">
@@ -45633,7 +45638,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
+      <c r="A241" t="n">
         <v>239</v>
       </c>
       <c r="B241" s="2" t="n">
@@ -45674,7 +45679,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K241" t="n">
@@ -45828,7 +45833,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
+      <c r="A242" t="n">
         <v>240</v>
       </c>
       <c r="B242" s="2" t="n">
@@ -46022,7 +46027,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
+      <c r="A243" t="n">
         <v>241</v>
       </c>
       <c r="B243" s="2" t="n">
@@ -46063,7 +46068,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K243" t="n">
@@ -46209,7 +46214,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
+      <c r="A244" t="n">
         <v>242</v>
       </c>
       <c r="B244" s="2" t="n">
@@ -46396,7 +46401,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
+      <c r="A245" t="n">
         <v>243</v>
       </c>
       <c r="B245" s="2" t="n">
@@ -46437,7 +46442,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K245" t="n">
@@ -46583,7 +46588,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
+      <c r="A246" t="n">
         <v>244</v>
       </c>
       <c r="B246" s="2" t="n">
@@ -46624,7 +46629,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K246" t="n">
@@ -46770,7 +46775,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
+      <c r="A247" t="n">
         <v>245</v>
       </c>
       <c r="B247" s="2" t="n">
@@ -46811,7 +46816,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K247" t="n">
@@ -46957,7 +46962,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
+      <c r="A248" t="n">
         <v>246</v>
       </c>
       <c r="B248" s="2" t="n">
@@ -46998,7 +47003,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K248" t="n">
@@ -47144,7 +47149,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
+      <c r="A249" t="n">
         <v>247</v>
       </c>
       <c r="B249" s="2" t="n">
@@ -47185,7 +47190,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K249" t="n">
@@ -47331,7 +47336,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
+      <c r="A250" t="n">
         <v>248</v>
       </c>
       <c r="B250" s="2" t="n">
@@ -47372,7 +47377,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K250" t="n">
@@ -47518,7 +47523,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
+      <c r="A251" t="n">
         <v>249</v>
       </c>
       <c r="B251" s="2" t="n">
@@ -47559,7 +47564,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Islámica</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K251" t="n">
@@ -47705,7 +47710,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
+      <c r="A252" t="n">
         <v>250</v>
       </c>
       <c r="B252" s="2" t="n">
@@ -47746,7 +47751,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K252" t="n">
@@ -47893,7 +47898,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
+      <c r="A253" t="n">
         <v>251</v>
       </c>
       <c r="B253" s="2" t="n">
@@ -47934,7 +47939,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K253" t="n">
@@ -48088,7 +48093,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
+      <c r="A254" t="n">
         <v>252</v>
       </c>
       <c r="B254" s="2" t="n">
@@ -48275,7 +48280,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
+      <c r="A255" t="n">
         <v>253</v>
       </c>
       <c r="B255" s="2" t="n">
@@ -48316,7 +48321,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K255" t="n">
@@ -48462,7 +48467,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
+      <c r="A256" t="n">
         <v>254</v>
       </c>
       <c r="B256" s="2" t="n">
@@ -48503,7 +48508,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K256" t="n">
@@ -48649,7 +48654,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
+      <c r="A257" t="n">
         <v>255</v>
       </c>
       <c r="B257" s="2" t="n">
@@ -48690,7 +48695,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K257" t="n">
@@ -48842,7 +48847,7 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
+      <c r="A258" t="n">
         <v>256</v>
       </c>
       <c r="B258" s="2" t="n">
@@ -48883,7 +48888,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K258" t="n">
@@ -49029,7 +49034,7 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
+      <c r="A259" t="n">
         <v>257</v>
       </c>
       <c r="B259" s="2" t="n">
@@ -49070,7 +49075,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K259" t="n">
@@ -49225,7 +49230,7 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
+      <c r="A260" t="n">
         <v>258</v>
       </c>
       <c r="B260" s="2" t="n">
@@ -49266,7 +49271,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K260" t="n">
@@ -49413,7 +49418,7 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
+      <c r="A261" t="n">
         <v>259</v>
       </c>
       <c r="B261" s="2" t="n">
@@ -49454,7 +49459,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K261" t="n">
@@ -49601,7 +49606,7 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
+      <c r="A262" t="n">
         <v>260</v>
       </c>
       <c r="B262" s="2" t="n">
@@ -49642,7 +49647,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K262" t="n">
@@ -49788,7 +49793,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
+      <c r="A263" t="n">
         <v>261</v>
       </c>
       <c r="B263" s="2" t="n">
@@ -49829,7 +49834,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K263" t="n">
@@ -49975,7 +49980,7 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
+      <c r="A264" t="n">
         <v>262</v>
       </c>
       <c r="B264" s="2" t="n">
@@ -50162,7 +50167,7 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
+      <c r="A265" t="n">
         <v>263</v>
       </c>
       <c r="B265" s="2" t="n">
@@ -50203,7 +50208,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K265" t="n">
@@ -50349,7 +50354,7 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
+      <c r="A266" t="n">
         <v>264</v>
       </c>
       <c r="B266" s="2" t="n">
@@ -50390,7 +50395,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K266" t="n">
@@ -50539,7 +50544,7 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
+      <c r="A267" t="n">
         <v>265</v>
       </c>
       <c r="B267" s="2" t="n">
@@ -50580,7 +50585,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>cristina</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K267" t="n">
@@ -50726,7 +50731,7 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
+      <c r="A268" t="n">
         <v>266</v>
       </c>
       <c r="B268" s="2" t="n">
@@ -50767,7 +50772,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K268" t="n">
@@ -50913,7 +50918,7 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
+      <c r="A269" t="n">
         <v>267</v>
       </c>
       <c r="B269" s="2" t="n">
@@ -50954,7 +50959,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K269" t="n">
@@ -51102,7 +51107,7 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
+      <c r="A270" t="n">
         <v>268</v>
       </c>
       <c r="B270" s="2" t="n">
@@ -51143,7 +51148,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K270" t="n">
@@ -51290,7 +51295,7 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
+      <c r="A271" t="n">
         <v>269</v>
       </c>
       <c r="B271" s="2" t="n">
@@ -51331,7 +51336,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K271" t="n">
@@ -51477,7 +51482,7 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
+      <c r="A272" t="n">
         <v>270</v>
       </c>
       <c r="B272" s="2" t="n">
@@ -51671,7 +51676,7 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
+      <c r="A273" t="n">
         <v>271</v>
       </c>
       <c r="B273" s="2" t="n">
@@ -51712,7 +51717,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K273" t="n">
@@ -51859,7 +51864,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
+      <c r="A274" t="n">
         <v>272</v>
       </c>
       <c r="B274" s="2" t="n">
@@ -51900,7 +51905,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Cristiano</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K274" t="n">
@@ -52056,7 +52061,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
+      <c r="A275" t="n">
         <v>273</v>
       </c>
       <c r="B275" s="2" t="n">
@@ -52097,7 +52102,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K275" t="n">
@@ -52246,7 +52251,7 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
+      <c r="A276" t="n">
         <v>274</v>
       </c>
       <c r="B276" s="2" t="n">
@@ -52435,7 +52440,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
+      <c r="A277" t="n">
         <v>275</v>
       </c>
       <c r="B277" s="2" t="n">
@@ -52476,7 +52481,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K277" t="n">
@@ -52629,7 +52634,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
+      <c r="A278" t="n">
         <v>276</v>
       </c>
       <c r="B278" s="2" t="n">
@@ -52670,7 +52675,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K278" t="n">
@@ -52816,7 +52821,7 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
+      <c r="A279" t="n">
         <v>277</v>
       </c>
       <c r="B279" s="2" t="n">
@@ -52857,7 +52862,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Religión musulmana</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K279" t="n">
@@ -53009,7 +53014,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
+      <c r="A280" t="n">
         <v>278</v>
       </c>
       <c r="B280" s="2" t="n">
@@ -53197,7 +53202,7 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
+      <c r="A281" t="n">
         <v>279</v>
       </c>
       <c r="B281" s="2" t="n">
@@ -53238,7 +53243,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K281" t="n">
@@ -53384,7 +53389,7 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
+      <c r="A282" t="n">
         <v>280</v>
       </c>
       <c r="B282" s="2" t="n">
@@ -53425,7 +53430,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K282" t="n">
@@ -53571,7 +53576,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
+      <c r="A283" t="n">
         <v>281</v>
       </c>
       <c r="B283" s="2" t="n">
@@ -53612,7 +53617,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K283" t="n">
@@ -53769,7 +53774,7 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
+      <c r="A284" t="n">
         <v>282</v>
       </c>
       <c r="B284" s="2" t="n">
@@ -53810,7 +53815,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Islam.</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K284" t="n">
@@ -53956,7 +53961,7 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
+      <c r="A285" t="n">
         <v>283</v>
       </c>
       <c r="B285" s="2" t="n">
@@ -54143,7 +54148,7 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
+      <c r="A286" t="n">
         <v>284</v>
       </c>
       <c r="B286" s="2" t="n">
@@ -54184,7 +54189,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K286" t="n">
@@ -54334,7 +54339,7 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
+      <c r="A287" t="n">
         <v>285</v>
       </c>
       <c r="B287" s="2" t="n">
@@ -54528,7 +54533,7 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
+      <c r="A288" t="n">
         <v>286</v>
       </c>
       <c r="B288" s="2" t="n">
@@ -54720,7 +54725,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
+      <c r="A289" t="n">
         <v>287</v>
       </c>
       <c r="B289" s="2" t="n">
@@ -54761,7 +54766,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K289" t="n">
@@ -54907,7 +54912,7 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
+      <c r="A290" t="n">
         <v>288</v>
       </c>
       <c r="B290" s="2" t="n">
@@ -54948,7 +54953,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K290" t="n">
@@ -55103,7 +55108,7 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
+      <c r="A291" t="n">
         <v>289</v>
       </c>
       <c r="B291" s="2" t="n">
@@ -55144,7 +55149,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Religión Cristina Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K291" t="n">
@@ -55299,7 +55304,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
+      <c r="A292" t="n">
         <v>290</v>
       </c>
       <c r="B292" s="2" t="n">
@@ -55340,7 +55345,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t xml:space="preserve">CRISTIANISMO </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K292" t="n">
@@ -55489,7 +55494,7 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
+      <c r="A293" t="n">
         <v>291</v>
       </c>
       <c r="B293" s="2" t="n">
@@ -55684,7 +55689,7 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
+      <c r="A294" t="n">
         <v>292</v>
       </c>
       <c r="B294" s="2" t="n">
@@ -55725,7 +55730,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K294" t="n">
@@ -55871,7 +55876,7 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
+      <c r="A295" t="n">
         <v>293</v>
       </c>
       <c r="B295" s="2" t="n">
@@ -55912,7 +55917,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Catolicismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K295" t="n">
@@ -56060,7 +56065,7 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
+      <c r="A296" t="n">
         <v>294</v>
       </c>
       <c r="B296" s="2" t="n">
@@ -56101,7 +56106,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K296" t="n">
@@ -56257,7 +56262,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
+      <c r="A297" t="n">
         <v>295</v>
       </c>
       <c r="B297" s="2" t="n">
@@ -56298,7 +56303,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K297" t="n">
@@ -56444,7 +56449,7 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
+      <c r="A298" t="n">
         <v>296</v>
       </c>
       <c r="B298" s="2" t="n">
@@ -56636,7 +56641,7 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
+      <c r="A299" t="n">
         <v>297</v>
       </c>
       <c r="B299" s="2" t="n">
@@ -56677,7 +56682,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K299" t="n">
@@ -56826,7 +56831,7 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
+      <c r="A300" t="n">
         <v>298</v>
       </c>
       <c r="B300" s="2" t="n">
@@ -56867,7 +56872,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K300" t="n">
@@ -57014,7 +57019,7 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
+      <c r="A301" t="n">
         <v>299</v>
       </c>
       <c r="B301" s="2" t="n">
@@ -57055,7 +57060,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K301" t="n">
@@ -57203,7 +57208,7 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
+      <c r="A302" t="n">
         <v>300</v>
       </c>
       <c r="B302" s="2" t="n">
@@ -57244,7 +57249,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K302" t="n">
@@ -57395,7 +57400,7 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
+      <c r="A303" t="n">
         <v>301</v>
       </c>
       <c r="B303" s="2" t="n">
@@ -57436,7 +57441,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>MUSULMANA</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K303" t="n">
@@ -57582,7 +57587,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
+      <c r="A304" t="n">
         <v>302</v>
       </c>
       <c r="B304" s="2" t="n">
@@ -57773,7 +57778,7 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
+      <c r="A305" t="n">
         <v>303</v>
       </c>
       <c r="B305" s="2" t="n">
@@ -57814,7 +57819,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K305" t="n">
@@ -57960,7 +57965,7 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
+      <c r="A306" t="n">
         <v>304</v>
       </c>
       <c r="B306" s="2" t="n">
@@ -58001,7 +58006,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Islámica</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K306" t="n">
@@ -58151,7 +58156,7 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
+      <c r="A307" t="n">
         <v>305</v>
       </c>
       <c r="B307" s="2" t="n">
@@ -58192,7 +58197,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K307" t="n">
@@ -58346,7 +58351,7 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
+      <c r="A308" t="n">
         <v>306</v>
       </c>
       <c r="B308" s="2" t="n">
@@ -58387,7 +58392,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K308" t="n">
@@ -58535,7 +58540,7 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
+      <c r="A309" t="n">
         <v>307</v>
       </c>
       <c r="B309" s="2" t="n">
@@ -58724,7 +58729,7 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
+      <c r="A310" t="n">
         <v>308</v>
       </c>
       <c r="B310" s="2" t="n">
@@ -58917,7 +58922,7 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
+      <c r="A311" t="n">
         <v>309</v>
       </c>
       <c r="B311" s="2" t="n">
@@ -58958,7 +58963,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K311" t="n">
@@ -59112,7 +59117,7 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
+      <c r="A312" t="n">
         <v>310</v>
       </c>
       <c r="B312" s="2" t="n">
@@ -59299,7 +59304,7 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
+      <c r="A313" t="n">
         <v>311</v>
       </c>
       <c r="B313" s="2" t="n">
@@ -59493,7 +59498,7 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
+      <c r="A314" t="n">
         <v>312</v>
       </c>
       <c r="B314" s="2" t="n">
@@ -59534,7 +59539,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K314" t="n">
@@ -59681,7 +59686,7 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
+      <c r="A315" t="n">
         <v>313</v>
       </c>
       <c r="B315" s="2" t="n">
@@ -59722,7 +59727,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K315" t="n">
@@ -59875,7 +59880,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
+      <c r="A316" t="n">
         <v>314</v>
       </c>
       <c r="B316" s="2" t="n">
@@ -59916,7 +59921,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K316" t="n">
@@ -60069,7 +60074,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
+      <c r="A317" t="n">
         <v>315</v>
       </c>
       <c r="B317" s="2" t="n">
@@ -60259,7 +60264,7 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
+      <c r="A318" t="n">
         <v>316</v>
       </c>
       <c r="B318" s="2" t="n">
@@ -60456,7 +60461,7 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
+      <c r="A319" t="n">
         <v>317</v>
       </c>
       <c r="B319" s="2" t="n">
@@ -60497,7 +60502,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K319" t="n">
@@ -60643,7 +60648,7 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
+      <c r="A320" t="n">
         <v>318</v>
       </c>
       <c r="B320" s="2" t="n">
@@ -60684,7 +60689,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Cistiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K320" t="n">
@@ -60835,7 +60840,7 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
+      <c r="A321" t="n">
         <v>319</v>
       </c>
       <c r="B321" s="2" t="n">
@@ -61026,7 +61031,7 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
+      <c r="A322" t="n">
         <v>320</v>
       </c>
       <c r="B322" s="2" t="n">
@@ -61067,7 +61072,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K322" t="n">
@@ -61213,7 +61218,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
+      <c r="A323" t="n">
         <v>321</v>
       </c>
       <c r="B323" s="2" t="n">
@@ -61254,7 +61259,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K323" t="n">
@@ -61417,7 +61422,7 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
+      <c r="A324" t="n">
         <v>322</v>
       </c>
       <c r="B324" s="2" t="n">
@@ -61458,7 +61463,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Cristianismo.</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K324" t="n">
@@ -61613,7 +61618,7 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
+      <c r="A325" t="n">
         <v>323</v>
       </c>
       <c r="B325" s="2" t="n">
@@ -61654,7 +61659,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Islámica</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K325" t="n">
@@ -61802,7 +61807,7 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
+      <c r="A326" t="n">
         <v>324</v>
       </c>
       <c r="B326" s="2" t="n">
@@ -61843,7 +61848,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Islámica</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K326" t="n">
@@ -61996,7 +62001,7 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
+      <c r="A327" t="n">
         <v>325</v>
       </c>
       <c r="B327" s="2" t="n">
@@ -62037,7 +62042,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Islámica</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K327" t="n">
@@ -62191,7 +62196,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
+      <c r="A328" t="n">
         <v>326</v>
       </c>
       <c r="B328" s="2" t="n">
@@ -62232,7 +62237,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K328" t="n">
@@ -62378,7 +62383,7 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="n">
+      <c r="A329" t="n">
         <v>327</v>
       </c>
       <c r="B329" s="2" t="n">
@@ -62419,7 +62424,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Musulman</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K329" t="n">
@@ -62569,7 +62574,7 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="n">
+      <c r="A330" t="n">
         <v>328</v>
       </c>
       <c r="B330" s="2" t="n">
@@ -62610,7 +62615,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t xml:space="preserve">cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K330" t="n">
@@ -62756,7 +62761,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="n">
+      <c r="A331" t="n">
         <v>329</v>
       </c>
       <c r="B331" s="2" t="n">
@@ -62797,7 +62802,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Crisriana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K331" t="n">
@@ -62943,7 +62948,7 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="n">
+      <c r="A332" t="n">
         <v>330</v>
       </c>
       <c r="B332" s="2" t="n">
@@ -62984,7 +62989,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K332" t="n">
@@ -63130,7 +63135,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="n">
+      <c r="A333" t="n">
         <v>331</v>
       </c>
       <c r="B333" s="2" t="n">
@@ -63171,7 +63176,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K333" t="n">
@@ -63317,7 +63322,7 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="n">
+      <c r="A334" t="n">
         <v>332</v>
       </c>
       <c r="B334" s="2" t="n">
@@ -63358,7 +63363,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K334" t="n">
@@ -63504,7 +63509,7 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="n">
+      <c r="A335" t="n">
         <v>333</v>
       </c>
       <c r="B335" s="2" t="n">
@@ -63545,7 +63550,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K335" t="n">
@@ -63691,7 +63696,7 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="n">
+      <c r="A336" t="n">
         <v>334</v>
       </c>
       <c r="B336" s="2" t="n">
@@ -63732,7 +63737,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K336" t="n">
@@ -63878,7 +63883,7 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="n">
+      <c r="A337" t="n">
         <v>335</v>
       </c>
       <c r="B337" s="2" t="n">
@@ -63919,7 +63924,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K337" t="n">
@@ -64067,7 +64072,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="n">
+      <c r="A338" t="n">
         <v>336</v>
       </c>
       <c r="B338" s="2" t="n">
@@ -64108,7 +64113,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Islam</t>
+          <t>islam</t>
         </is>
       </c>
       <c r="K338" t="n">
@@ -64258,7 +64263,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="n">
+      <c r="A339" t="n">
         <v>337</v>
       </c>
       <c r="B339" s="2" t="n">
@@ -64299,7 +64304,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K339" t="n">
@@ -64448,7 +64453,7 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="n">
+      <c r="A340" t="n">
         <v>338</v>
       </c>
       <c r="B340" s="2" t="n">
@@ -64635,7 +64640,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="n">
+      <c r="A341" t="n">
         <v>339</v>
       </c>
       <c r="B341" s="2" t="n">
@@ -64676,7 +64681,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K341" t="n">
@@ -64831,7 +64836,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="n">
+      <c r="A342" t="n">
         <v>340</v>
       </c>
       <c r="B342" s="2" t="n">
@@ -64872,7 +64877,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K342" t="n">
@@ -65024,7 +65029,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="n">
+      <c r="A343" t="n">
         <v>341</v>
       </c>
       <c r="B343" s="2" t="n">
@@ -65065,7 +65070,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K343" t="n">
@@ -65212,7 +65217,7 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="n">
+      <c r="A344" t="n">
         <v>342</v>
       </c>
       <c r="B344" s="2" t="n">
@@ -65253,7 +65258,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K344" t="n">
@@ -65399,7 +65404,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="n">
+      <c r="A345" t="n">
         <v>343</v>
       </c>
       <c r="B345" s="2" t="n">
@@ -65440,7 +65445,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K345" t="n">
@@ -65596,7 +65601,7 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="n">
+      <c r="A346" t="n">
         <v>344</v>
       </c>
       <c r="B346" s="2" t="n">
@@ -65637,7 +65642,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K346" t="n">
@@ -65783,7 +65788,7 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="n">
+      <c r="A347" t="n">
         <v>345</v>
       </c>
       <c r="B347" s="2" t="n">
@@ -65977,7 +65982,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="n">
+      <c r="A348" t="n">
         <v>346</v>
       </c>
       <c r="B348" s="2" t="n">
@@ -66018,7 +66023,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cristiana </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K348" t="n">
@@ -66164,7 +66169,7 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="n">
+      <c r="A349" t="n">
         <v>347</v>
       </c>
       <c r="B349" s="2" t="n">
@@ -66357,7 +66362,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="n">
+      <c r="A350" t="n">
         <v>348</v>
       </c>
       <c r="B350" s="2" t="n">
@@ -66553,7 +66558,7 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="n">
+      <c r="A351" t="n">
         <v>349</v>
       </c>
       <c r="B351" s="2" t="n">
@@ -66594,7 +66599,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K351" t="n">
@@ -66747,7 +66752,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="n">
+      <c r="A352" t="n">
         <v>350</v>
       </c>
       <c r="B352" s="2" t="n">
@@ -66788,7 +66793,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K352" t="n">
@@ -66934,7 +66939,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="n">
+      <c r="A353" t="n">
         <v>351</v>
       </c>
       <c r="B353" s="2" t="n">
@@ -67121,7 +67126,7 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="n">
+      <c r="A354" t="n">
         <v>352</v>
       </c>
       <c r="B354" s="2" t="n">
@@ -67162,7 +67167,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K354" t="n">
@@ -67308,7 +67313,7 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="n">
+      <c r="A355" t="n">
         <v>353</v>
       </c>
       <c r="B355" s="2" t="n">
@@ -67495,7 +67500,7 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="n">
+      <c r="A356" t="n">
         <v>354</v>
       </c>
       <c r="B356" s="2" t="n">
@@ -67536,7 +67541,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K356" t="n">
@@ -67682,7 +67687,7 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="n">
+      <c r="A357" t="n">
         <v>355</v>
       </c>
       <c r="B357" s="2" t="n">
@@ -67869,7 +67874,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="n">
+      <c r="A358" t="n">
         <v>356</v>
       </c>
       <c r="B358" s="2" t="n">
@@ -68056,7 +68061,7 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="n">
+      <c r="A359" t="n">
         <v>357</v>
       </c>
       <c r="B359" s="2" t="n">
@@ -68244,7 +68249,7 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="n">
+      <c r="A360" t="n">
         <v>358</v>
       </c>
       <c r="B360" s="2" t="n">
@@ -68285,7 +68290,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Católica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K360" t="n">
@@ -68431,7 +68436,7 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="n">
+      <c r="A361" t="n">
         <v>359</v>
       </c>
       <c r="B361" s="2" t="n">
@@ -68472,7 +68477,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Católica</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K361" t="n">
@@ -68618,7 +68623,7 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="n">
+      <c r="A362" t="n">
         <v>360</v>
       </c>
       <c r="B362" s="2" t="n">
@@ -68805,7 +68810,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="n">
+      <c r="A363" t="n">
         <v>361</v>
       </c>
       <c r="B363" s="2" t="n">
@@ -68999,7 +69004,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="n">
+      <c r="A364" t="n">
         <v>362</v>
       </c>
       <c r="B364" s="2" t="n">
@@ -69189,7 +69194,7 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="n">
+      <c r="A365" t="n">
         <v>363</v>
       </c>
       <c r="B365" s="2" t="n">
@@ -69378,7 +69383,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="n">
+      <c r="A366" t="n">
         <v>364</v>
       </c>
       <c r="B366" s="2" t="n">
@@ -69419,7 +69424,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evangélica </t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K366" t="n">
@@ -69565,7 +69570,7 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="n">
+      <c r="A367" t="n">
         <v>365</v>
       </c>
       <c r="B367" s="2" t="n">
@@ -69752,7 +69757,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="n">
+      <c r="A368" t="n">
         <v>366</v>
       </c>
       <c r="B368" s="2" t="n">
@@ -69939,7 +69944,7 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="n">
+      <c r="A369" t="n">
         <v>367</v>
       </c>
       <c r="B369" s="2" t="n">
@@ -69980,7 +69985,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Católica.</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K369" t="n">
@@ -70126,7 +70131,7 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="n">
+      <c r="A370" t="n">
         <v>368</v>
       </c>
       <c r="B370" s="2" t="n">
@@ -70313,7 +70318,7 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="n">
+      <c r="A371" t="n">
         <v>369</v>
       </c>
       <c r="B371" s="2" t="n">
@@ -70501,7 +70506,7 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="n">
+      <c r="A372" t="n">
         <v>370</v>
       </c>
       <c r="B372" s="2" t="n">
@@ -70542,7 +70547,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Cristiana</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K372" t="n">
@@ -70688,7 +70693,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="n">
+      <c r="A373" t="n">
         <v>371</v>
       </c>
       <c r="B373" s="2" t="n">
@@ -70875,7 +70880,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="n">
+      <c r="A374" t="n">
         <v>372</v>
       </c>
       <c r="B374" s="2" t="n">
@@ -71062,7 +71067,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="1" t="n">
+      <c r="A375" t="n">
         <v>373</v>
       </c>
       <c r="B375" s="2" t="n">
@@ -71103,7 +71108,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Cristianismo</t>
+          <t>cristianismo</t>
         </is>
       </c>
       <c r="K375" t="n">
